--- a/Client Data.xlsx
+++ b/Client Data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4479" uniqueCount="2333">
   <si>
     <t>Company Name</t>
   </si>
@@ -5539,6 +5539,1494 @@
   </si>
   <si>
     <t>datatemplate.com</t>
+  </si>
+  <si>
+    <t>macquarie.com</t>
+  </si>
+  <si>
+    <t>glonur.com</t>
+  </si>
+  <si>
+    <t>AQM Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>aqmtechnologies.com</t>
+  </si>
+  <si>
+    <t>Techno Infonet Gujarat Private Limited</t>
+  </si>
+  <si>
+    <t>technoinfonet.com</t>
+  </si>
+  <si>
+    <t>Emorphis Software Technology Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>emorphis.com</t>
+  </si>
+  <si>
+    <t>Quantrello Digital Private Limited</t>
+  </si>
+  <si>
+    <t>qlikchain.com</t>
+  </si>
+  <si>
+    <t>MUFG Bank Ltd</t>
+  </si>
+  <si>
+    <t>bk.mufg.jp</t>
+  </si>
+  <si>
+    <t>Vir Softech Private Limited</t>
+  </si>
+  <si>
+    <t>virsoftech.com</t>
+  </si>
+  <si>
+    <t>Thyssenkrupp India Private Limited</t>
+  </si>
+  <si>
+    <t>thyssenkruppindia.com</t>
+  </si>
+  <si>
+    <t>Fluid Robotics Private Limited</t>
+  </si>
+  <si>
+    <t>fluidrobotics.com</t>
+  </si>
+  <si>
+    <t>Outright Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>outrightsolutions.net</t>
+  </si>
+  <si>
+    <t>Prudent Globaltech Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>prudentconsulting.com</t>
+  </si>
+  <si>
+    <t>qlbmarketinginsights.com</t>
+  </si>
+  <si>
+    <t>softvan.in</t>
+  </si>
+  <si>
+    <t>skynats.com</t>
+  </si>
+  <si>
+    <t>caprusit.com</t>
+  </si>
+  <si>
+    <t>niit.com</t>
+  </si>
+  <si>
+    <t>SanDisk India Device Design Centre Private Limited</t>
+  </si>
+  <si>
+    <t>wdc.com</t>
+  </si>
+  <si>
+    <t>Innovapptive Global Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>innovapptive.com</t>
+  </si>
+  <si>
+    <t>My Analysers</t>
+  </si>
+  <si>
+    <t>Ujjain</t>
+  </si>
+  <si>
+    <t>myanalysers.com</t>
+  </si>
+  <si>
+    <t>Botminds AI Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>botminds.ai</t>
+  </si>
+  <si>
+    <t>Beyond Key Systems Private Limited</t>
+  </si>
+  <si>
+    <t>beyondkey.com</t>
+  </si>
+  <si>
+    <t>Esri India Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>esri.in</t>
+  </si>
+  <si>
+    <t>iLeaf Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>ileafsolutions.com</t>
+  </si>
+  <si>
+    <t>QA Masters Private Limited</t>
+  </si>
+  <si>
+    <t>surensinffotek.com</t>
+  </si>
+  <si>
+    <t>iauro Systems Private Limited</t>
+  </si>
+  <si>
+    <t>iauro.com</t>
+  </si>
+  <si>
+    <t>Siddhan Intelligence Private Limited</t>
+  </si>
+  <si>
+    <t>siddhanintelligence.com</t>
+  </si>
+  <si>
+    <t>Tech SMCSquared (GCC) India Private Limited</t>
+  </si>
+  <si>
+    <t>smc2.com</t>
+  </si>
+  <si>
+    <t>Parameter Softwares Private Limited</t>
+  </si>
+  <si>
+    <t>pspl.ind.in</t>
+  </si>
+  <si>
+    <t>Checkmarx India Technology Services Private Limited</t>
+  </si>
+  <si>
+    <t>checkmarx.com</t>
+  </si>
+  <si>
+    <t>Itarium Technologies India Private Limited</t>
+  </si>
+  <si>
+    <t>itariumtech.com</t>
+  </si>
+  <si>
+    <t>Improsys</t>
+  </si>
+  <si>
+    <t>improsys.in</t>
+  </si>
+  <si>
+    <t>Rakuten India Enterprise Private Limited</t>
+  </si>
+  <si>
+    <t>corp.rakuten.co.in</t>
+  </si>
+  <si>
+    <t>Voltuswave Technologies India Private Limited</t>
+  </si>
+  <si>
+    <t>voltusone.com</t>
+  </si>
+  <si>
+    <t>Shiva Infotech Innovations Private Limited</t>
+  </si>
+  <si>
+    <t>shivainfotech.com</t>
+  </si>
+  <si>
+    <t>Smartek21 Private Limited</t>
+  </si>
+  <si>
+    <t>smartek21.com</t>
+  </si>
+  <si>
+    <t>Friends Color Images Private Limited</t>
+  </si>
+  <si>
+    <t>fci-ccm.com</t>
+  </si>
+  <si>
+    <t>Sankey Business Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>sankeysolutions.com</t>
+  </si>
+  <si>
+    <t>Amtex Software Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>amtexsystems.com</t>
+  </si>
+  <si>
+    <t>Panacea Infosec Private Limited</t>
+  </si>
+  <si>
+    <t>panaceainfosec.com</t>
+  </si>
+  <si>
+    <t>Swappl Intellect Sol Private Limited</t>
+  </si>
+  <si>
+    <t>saintellectsolutions.com</t>
+  </si>
+  <si>
+    <t>Swaransoft Support Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>swaransoft.com</t>
+  </si>
+  <si>
+    <t>VirtualTech Outsourcing Services Private Limited</t>
+  </si>
+  <si>
+    <t>Bhilai</t>
+  </si>
+  <si>
+    <t>virtualclone.in</t>
+  </si>
+  <si>
+    <t>Groundtruth India Private Limited</t>
+  </si>
+  <si>
+    <t>groundtruth.com</t>
+  </si>
+  <si>
+    <t>Oasys Tech Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>oasystspl.com</t>
+  </si>
+  <si>
+    <t>Graphene Health Tech Private Limited</t>
+  </si>
+  <si>
+    <t>graphenesvc.com</t>
+  </si>
+  <si>
+    <t>Neridio Systems Private Limited</t>
+  </si>
+  <si>
+    <t>neridio.com</t>
+  </si>
+  <si>
+    <t>Scan-IT Solution (India) Private Limited</t>
+  </si>
+  <si>
+    <t>scan-it.com.sg</t>
+  </si>
+  <si>
+    <t>Eclatprime Digital Private Limited</t>
+  </si>
+  <si>
+    <t>eclatprime.com</t>
+  </si>
+  <si>
+    <t>Innovative Logic Lab Private Limited</t>
+  </si>
+  <si>
+    <t>innologic.in</t>
+  </si>
+  <si>
+    <t>Creation Infoways Private Limited</t>
+  </si>
+  <si>
+    <t>creationinfoways.com</t>
+  </si>
+  <si>
+    <t>Azure Software Private Limited</t>
+  </si>
+  <si>
+    <t>azuresys.com</t>
+  </si>
+  <si>
+    <t>VERTS Services India Private Limited</t>
+  </si>
+  <si>
+    <t>verts.co.in</t>
+  </si>
+  <si>
+    <t>Network Redux India Private Limited</t>
+  </si>
+  <si>
+    <t>networkredux.com</t>
+  </si>
+  <si>
+    <t>Credence Redefined Services Private Limited</t>
+  </si>
+  <si>
+    <t>justverified.in</t>
+  </si>
+  <si>
+    <t>Telstra Global Business Services LLP</t>
+  </si>
+  <si>
+    <t>telstra.com.au</t>
+  </si>
+  <si>
+    <t>InfoVision Labs India Private Limited</t>
+  </si>
+  <si>
+    <t>infovision.com</t>
+  </si>
+  <si>
+    <t>EverestIMS Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Aegan Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>AgpayTech India Private Limited</t>
+  </si>
+  <si>
+    <t>Ctrine Engineering Private Limited</t>
+  </si>
+  <si>
+    <t>Progience Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Atgeir Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>Lonar Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Flaplive Innovations Private Limited</t>
+  </si>
+  <si>
+    <t>NCompass TechStudio Private Limited</t>
+  </si>
+  <si>
+    <t>Kyndryl Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>Infowind Technologies (IT) Private Limited</t>
+  </si>
+  <si>
+    <t>Logitech Engineering &amp; Designs India Private Limited</t>
+  </si>
+  <si>
+    <t>Sanchi Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>Zelar Soft Private Limited</t>
+  </si>
+  <si>
+    <t>zelarsoft.com</t>
+  </si>
+  <si>
+    <t>Concerto Software &amp; Systems Private Limited</t>
+  </si>
+  <si>
+    <t>concertosoft.com</t>
+  </si>
+  <si>
+    <t>Bert Labs Private Limited</t>
+  </si>
+  <si>
+    <t>bertlabs.com</t>
+  </si>
+  <si>
+    <t>eApp IT Services Private Limited</t>
+  </si>
+  <si>
+    <t>eappitservices.com</t>
+  </si>
+  <si>
+    <t>Advantage Club Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>advantageclub.co</t>
+  </si>
+  <si>
+    <t>sanchisolutions.com</t>
+  </si>
+  <si>
+    <t>Collective S Software Private Limited</t>
+  </si>
+  <si>
+    <t>collective-s.com</t>
+  </si>
+  <si>
+    <t>NLB Services Private Limited</t>
+  </si>
+  <si>
+    <t>nlbservices.com</t>
+  </si>
+  <si>
+    <t>TechSheel Private Limited</t>
+  </si>
+  <si>
+    <t>techsheel.com</t>
+  </si>
+  <si>
+    <t>Sidan Global Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>sidanglobal.com</t>
+  </si>
+  <si>
+    <t>Delphix Software Private Limited</t>
+  </si>
+  <si>
+    <t>delphix.com</t>
+  </si>
+  <si>
+    <t>GoldenSource International Private Limited</t>
+  </si>
+  <si>
+    <t>thegoldensource.com</t>
+  </si>
+  <si>
+    <t>Logiq Labs Private Limited</t>
+  </si>
+  <si>
+    <t>eshipz.com</t>
+  </si>
+  <si>
+    <t>SKI Infosolutions Private Limited</t>
+  </si>
+  <si>
+    <t>skinternational.com</t>
+  </si>
+  <si>
+    <t>Huron Eurasia India Private Limited</t>
+  </si>
+  <si>
+    <t>huronconsultinggroup.com</t>
+  </si>
+  <si>
+    <t>https://www.techsheel.com/</t>
+  </si>
+  <si>
+    <t>http://www.sidanglobal.com</t>
+  </si>
+  <si>
+    <t>https://www.delphix.com/</t>
+  </si>
+  <si>
+    <t>https://nlbservices.com/</t>
+  </si>
+  <si>
+    <t>http://www.huronconsultinggroup.com</t>
+  </si>
+  <si>
+    <t>http://www.thegoldensource.com</t>
+  </si>
+  <si>
+    <t>https://eshipz.com/</t>
+  </si>
+  <si>
+    <t>https://necurity.com/</t>
+  </si>
+  <si>
+    <t>Techfriar Technologies</t>
+  </si>
+  <si>
+    <t>https://techfriar.com/</t>
+  </si>
+  <si>
+    <t>Vanderlande Industries Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.vanderlande.com/</t>
+  </si>
+  <si>
+    <t>SAS Research And Development (India) Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.sas.com/en_in/sas-rd-india.html</t>
+  </si>
+  <si>
+    <t>7-Eleven Corporate Services India LLP</t>
+  </si>
+  <si>
+    <t>http://www.7-Eleven.com</t>
+  </si>
+  <si>
+    <t>CData Software India Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.cdata.com</t>
+  </si>
+  <si>
+    <t>CNH Industrial Technology Services (India) Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.cnhindustrial.com/en-us</t>
+  </si>
+  <si>
+    <t>Silver Consultancy Services Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.silcon.co.in/</t>
+  </si>
+  <si>
+    <t>Valley Monks Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.customfit.ai/</t>
+  </si>
+  <si>
+    <t>TechJockey Infotech Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.techjockey.com/blog/</t>
+  </si>
+  <si>
+    <t>Ginni Systems Limited</t>
+  </si>
+  <si>
+    <t>http://www.ginesys.in</t>
+  </si>
+  <si>
+    <t>Geeklurn Edutech Services Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.geeklurn.com/</t>
+  </si>
+  <si>
+    <t>Edvenswa Tech Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.edvenswa.com</t>
+  </si>
+  <si>
+    <t>Spoorthy Consultancy and IT Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.scits.co.in/</t>
+  </si>
+  <si>
+    <t>Softqube Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.softqubes.com</t>
+  </si>
+  <si>
+    <t>Geo Spatial Solution</t>
+  </si>
+  <si>
+    <t>http://www.gssodisha.com/</t>
+  </si>
+  <si>
+    <t>Mindbowser Infosolutions Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.mindbowser.com/</t>
+  </si>
+  <si>
+    <t>Raw Data Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.rawdatatech.com/</t>
+  </si>
+  <si>
+    <t>Aufait Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.aufittechnologies.com</t>
+  </si>
+  <si>
+    <t>Basis Expert Consulting Services Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.beeceeyes.com</t>
+  </si>
+  <si>
+    <t>Veranda Learning Solutions Limited</t>
+  </si>
+  <si>
+    <t>https://www.verandalearning.com/</t>
+  </si>
+  <si>
+    <t>V K Control System Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.vkcontrol.com/</t>
+  </si>
+  <si>
+    <t>SRM Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.srmtech.com/</t>
+  </si>
+  <si>
+    <t>MANDS Consulting Private Limited</t>
+  </si>
+  <si>
+    <t>Logixal Cloud Solutions LLP</t>
+  </si>
+  <si>
+    <t>Areteans Technology Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>Delve AI India Private Limited</t>
+  </si>
+  <si>
+    <t>MRC Consultancy</t>
+  </si>
+  <si>
+    <t>Aizen Algo Private Limited</t>
+  </si>
+  <si>
+    <t>Trunexa Infoways Private Limited</t>
+  </si>
+  <si>
+    <t>Lululemon India (Services) Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.lululemon.com</t>
+  </si>
+  <si>
+    <t>DigitalFabric Consulting Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.digitalfabric.in/</t>
+  </si>
+  <si>
+    <t>Process Nine Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.process9.com</t>
+  </si>
+  <si>
+    <t>Crossml Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.crossml.com/</t>
+  </si>
+  <si>
+    <t>Bective and Wesley Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.fusiongbs.com/</t>
+  </si>
+  <si>
+    <t>Rio Tinto India Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.riotinto.com</t>
+  </si>
+  <si>
+    <t>Inovaare Clouds Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.acesocloud.com/</t>
+  </si>
+  <si>
+    <t>Bultaminds Venture Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.bultaminds.com/</t>
+  </si>
+  <si>
+    <t>Blu Cocoon Digital Private Limited</t>
+  </si>
+  <si>
+    <t>https://blucocoondigital.com</t>
+  </si>
+  <si>
+    <t>Abstract Tech Asia Private Limited</t>
+  </si>
+  <si>
+    <t>Tuticorin</t>
+  </si>
+  <si>
+    <t>http://abstract-tech.com</t>
+  </si>
+  <si>
+    <t>Qt India Technology Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.qt.io</t>
+  </si>
+  <si>
+    <t>ProductDossier Solutions (India) Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.productdossier.com</t>
+  </si>
+  <si>
+    <t>Riota Private Limited</t>
+  </si>
+  <si>
+    <t>https://riota.in/</t>
+  </si>
+  <si>
+    <t>C&amp;K Management Limited</t>
+  </si>
+  <si>
+    <t>http://www.cnkonline.com/aboutus/about_cnk.asp</t>
+  </si>
+  <si>
+    <t>echSheel Private Limited</t>
+  </si>
+  <si>
+    <t>Tekdi Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Photosyntesis Branding Solutions LLP</t>
+  </si>
+  <si>
+    <t>Schneider Electric Private Limited</t>
+  </si>
+  <si>
+    <t>Ovatix IT Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>Polaris India Private Limited</t>
+  </si>
+  <si>
+    <t>Exaltare Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Addend Analytics LLP</t>
+  </si>
+  <si>
+    <t>ServiceNow Software Development India Private Limited</t>
+  </si>
+  <si>
+    <t>Striatum Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Ellow Talent Marketplaces Private Limited</t>
+  </si>
+  <si>
+    <t>Experian Services India (Private Limited)</t>
+  </si>
+  <si>
+    <t>Amtronics Engineering Services Private Limited</t>
+  </si>
+  <si>
+    <t>Centre for Computational Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Worldline Global Services Private Limited</t>
+  </si>
+  <si>
+    <t>worldline.com</t>
+  </si>
+  <si>
+    <t>cctech.co.in</t>
+  </si>
+  <si>
+    <t>servicenow.com</t>
+  </si>
+  <si>
+    <t>striatumtech.com</t>
+  </si>
+  <si>
+    <t>ellow.io</t>
+  </si>
+  <si>
+    <t>addendanalytics.com</t>
+  </si>
+  <si>
+    <t>Ciranta IT Services Private Limited</t>
+  </si>
+  <si>
+    <t>aspirantlabs.com</t>
+  </si>
+  <si>
+    <t>experian.com</t>
+  </si>
+  <si>
+    <t>amtronics.in</t>
+  </si>
+  <si>
+    <t>Dataabsolute Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>dataabsolute.com</t>
+  </si>
+  <si>
+    <t>Finacct Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>finacctsolutions.com</t>
+  </si>
+  <si>
+    <t>Kautech Services Private Limited</t>
+  </si>
+  <si>
+    <t>kautech.in</t>
+  </si>
+  <si>
+    <t>QualiZeal India LLP</t>
+  </si>
+  <si>
+    <t>qualizeal.com</t>
+  </si>
+  <si>
+    <t>Gabriel- Bros India Private Limited</t>
+  </si>
+  <si>
+    <t>gabrielny.com</t>
+  </si>
+  <si>
+    <t>NetiApps Software Private Limited</t>
+  </si>
+  <si>
+    <t>netiapps.com</t>
+  </si>
+  <si>
+    <t>ServiceNow Software Development India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://www.servicenow.com</t>
+  </si>
+  <si>
+    <t>Centre for Computational Technologies Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://www.cctech.co.in/</t>
+  </si>
+  <si>
+    <t>Worldline Global Services Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://worldline.com/</t>
+  </si>
+  <si>
+    <t>Opengov India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://opengov.com/</t>
+  </si>
+  <si>
+    <t>Natixis Global Services (India) Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://apac.cib.natixis.com</t>
+  </si>
+  <si>
+    <t>Imagination Technologies (India) Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://www.imaginationtech.com</t>
+  </si>
+  <si>
+    <t>Finacus Solutions Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://www.finacus.co.in</t>
+  </si>
+  <si>
+    <t>Divergent Software Labs Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://divergentsoftlab.com/</t>
+  </si>
+  <si>
+    <t>NYL10 Softwares Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://www.nyl.technology</t>
+  </si>
+  <si>
+    <t>Impaqtive Technologies India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>http://www.impaqtive.com</t>
+  </si>
+  <si>
+    <t>Interaxic Management Services Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://www.interaxicservices.com</t>
+  </si>
+  <si>
+    <t>ZIP Infosolutions Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://www.growisto.com/</t>
+  </si>
+  <si>
+    <t>AmplifAI Performance Management Pvt Ltd</t>
+  </si>
+  <si>
+    <t>http://www.amplifai.com</t>
+  </si>
+  <si>
+    <t>Dasha Krit Technologies Pvt Ltd</t>
+  </si>
+  <si>
+    <t>http://www.d10x.io</t>
+  </si>
+  <si>
+    <t>E-Solutions IT Services Pvt Ltd</t>
+  </si>
+  <si>
+    <t>https://www.e-solutionsinc.com/</t>
+  </si>
+  <si>
+    <t>Beyond Imagination Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>beimagine.tech</t>
+  </si>
+  <si>
+    <t>Cliniqally Healthtech Private Limited</t>
+  </si>
+  <si>
+    <t>cliniqally.com</t>
+  </si>
+  <si>
+    <t>Interaxic Management Services Private Limited</t>
+  </si>
+  <si>
+    <t>interaxicservices.com</t>
+  </si>
+  <si>
+    <t>ZIP Infosolutions Private Limited</t>
+  </si>
+  <si>
+    <t>growisto.com</t>
+  </si>
+  <si>
+    <t>AmplifAI Performance Management Private Limited</t>
+  </si>
+  <si>
+    <t>amplifai.com</t>
+  </si>
+  <si>
+    <t>Impaqtive Technologies India Private Limited</t>
+  </si>
+  <si>
+    <t>impaqtive.com</t>
+  </si>
+  <si>
+    <t>illumifin India LLP</t>
+  </si>
+  <si>
+    <t>illumifin.com</t>
+  </si>
+  <si>
+    <t>Dasha Krit Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>d10x.io</t>
+  </si>
+  <si>
+    <t>E-Solutions IT Services Private Limited</t>
+  </si>
+  <si>
+    <t>e-solutionsinc.com</t>
+  </si>
+  <si>
+    <t>Fastcurve Services Private Limited</t>
+  </si>
+  <si>
+    <t>fastcurveservices.com</t>
+  </si>
+  <si>
+    <t>ISPG Technologies India Private Limited</t>
+  </si>
+  <si>
+    <t>ispg.co</t>
+  </si>
+  <si>
+    <t>Advetaya Business Consultant Private Limited</t>
+  </si>
+  <si>
+    <t>aagey.com</t>
+  </si>
+  <si>
+    <t>SmartShift Logistics Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>porter.in</t>
+  </si>
+  <si>
+    <t>insightsoftware International Private Limited</t>
+  </si>
+  <si>
+    <t>insightsoftware.com</t>
+  </si>
+  <si>
+    <t>DigitoWork</t>
+  </si>
+  <si>
+    <t>digitowork.com</t>
+  </si>
+  <si>
+    <t>Nimap Infotech LLP</t>
+  </si>
+  <si>
+    <t>nimapinfotech.com</t>
+  </si>
+  <si>
+    <t>Adaps IT Private Limited</t>
+  </si>
+  <si>
+    <t>adaps.com</t>
+  </si>
+  <si>
+    <t>Mawai Infotech Limited</t>
+  </si>
+  <si>
+    <t>mawai.com</t>
+  </si>
+  <si>
+    <t>Wyzmindz Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>transmonqa.com</t>
+  </si>
+  <si>
+    <t>doodleblue Innovations Private Limited</t>
+  </si>
+  <si>
+    <t>doodleblue.com</t>
+  </si>
+  <si>
+    <t>IDP Education India Services LLP</t>
+  </si>
+  <si>
+    <t>idp.com/india/</t>
+  </si>
+  <si>
+    <t>Repyute Networks Private Limited</t>
+  </si>
+  <si>
+    <t>repute.net</t>
+  </si>
+  <si>
+    <t>Adagrad Private Limited</t>
+  </si>
+  <si>
+    <t>adagrad.ai</t>
+  </si>
+  <si>
+    <t>GSK India Global Services Private Limited</t>
+  </si>
+  <si>
+    <t>gsk.com</t>
+  </si>
+  <si>
+    <t>Datamorphosis Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>datamorphosis.in</t>
+  </si>
+  <si>
+    <t>BigFoot Retail Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>shiprocket.in</t>
+  </si>
+  <si>
+    <t>KloudPortal Technology Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>kloudportal.com</t>
+  </si>
+  <si>
+    <t>idp.com/india</t>
+  </si>
+  <si>
+    <t>Cognativ India Private Limited</t>
+  </si>
+  <si>
+    <t>cognativinc.com</t>
+  </si>
+  <si>
+    <t>Exela Technologies India Private Limited</t>
+  </si>
+  <si>
+    <t>exelatech.com</t>
+  </si>
+  <si>
+    <t>Teknorix Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Panaji</t>
+  </si>
+  <si>
+    <t>teknorix.com</t>
+  </si>
+  <si>
+    <t>QAAgility Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>qaagility.com</t>
+  </si>
+  <si>
+    <t>VoipConnect Private Limited</t>
+  </si>
+  <si>
+    <t>voiptechsolutions.in</t>
+  </si>
+  <si>
+    <t>DizitalPods Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>dizitalpods.com</t>
+  </si>
+  <si>
+    <t>https://www.idp.com/india/</t>
+  </si>
+  <si>
+    <t>http://www.doodleblue.com</t>
+  </si>
+  <si>
+    <t>https://www.kloudportal.com</t>
+  </si>
+  <si>
+    <t>https://www.shiprocket.in/</t>
+  </si>
+  <si>
+    <t>http://www.datamorphosis.in</t>
+  </si>
+  <si>
+    <t>Lentera Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.lentera.in</t>
+  </si>
+  <si>
+    <t>Nelito Systems Limited</t>
+  </si>
+  <si>
+    <t>https://www.nelito.com</t>
+  </si>
+  <si>
+    <t>eNova Software and Hardware Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.enovasolutions.com</t>
+  </si>
+  <si>
+    <t>Carboline (India) Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.rpmperformancecoatings.com/</t>
+  </si>
+  <si>
+    <t>X0PA AI Private Limited</t>
+  </si>
+  <si>
+    <t>https://x0pa.com/</t>
+  </si>
+  <si>
+    <t>Fidel Softech Limited</t>
+  </si>
+  <si>
+    <t>https://fidelsoftech.com/</t>
+  </si>
+  <si>
+    <t>Incredible Visibility Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>Kollam</t>
+  </si>
+  <si>
+    <t>https://www.incrediblevisibility.com/</t>
+  </si>
+  <si>
+    <t>Pitney Bowes India Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.pitneybowes.com/in</t>
+  </si>
+  <si>
+    <t>Kanini Software Solutions India Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.kanini.com</t>
+  </si>
+  <si>
+    <t>Michelin India Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.michelin.com</t>
+  </si>
+  <si>
+    <t>Code Shastra Private Limited</t>
+  </si>
+  <si>
+    <t>Nanosecond Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Cogentnext Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>PACCAR India Private Limited</t>
+  </si>
+  <si>
+    <t>InfoFeat Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Stripe India Private Limited</t>
+  </si>
+  <si>
+    <t>Interloop Consulting LLP</t>
+  </si>
+  <si>
+    <t>Faridabad</t>
+  </si>
+  <si>
+    <t>NSArrows Innovations Private Limited</t>
+  </si>
+  <si>
+    <t>AITOBI Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Spera Digital Consulting Services Private Limited</t>
+  </si>
+  <si>
+    <t>Firstventure Corporation Private Limited</t>
+  </si>
+  <si>
+    <t>courseplay.co</t>
+  </si>
+  <si>
+    <t>Meru Accounting Private Limited</t>
+  </si>
+  <si>
+    <t>meruaccounting.com</t>
+  </si>
+  <si>
+    <t>trunexa.com</t>
+  </si>
+  <si>
+    <t>logixal.com</t>
+  </si>
+  <si>
+    <t>areteanstech.com</t>
+  </si>
+  <si>
+    <t>delve.ai</t>
+  </si>
+  <si>
+    <t>mandsconsulting.com</t>
+  </si>
+  <si>
+    <t>Randstad Offshore Services Private Limited</t>
+  </si>
+  <si>
+    <t>randstadoffshore.com</t>
+  </si>
+  <si>
+    <t>mrcconsultancy.net</t>
+  </si>
+  <si>
+    <t>aizenalgo.com</t>
+  </si>
+  <si>
+    <t>Wattlecorp Cybersecurity Labs LLP</t>
+  </si>
+  <si>
+    <t>wattlecorp.com</t>
+  </si>
+  <si>
+    <t>Millowsatya Services Private Limited</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t>millow.io</t>
+  </si>
+  <si>
+    <t>V I Point Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>vipointsolutions.net</t>
+  </si>
+  <si>
+    <t>Version 1 Services Private Limited</t>
+  </si>
+  <si>
+    <t>version1.com</t>
+  </si>
+  <si>
+    <t>Ekameva Consult Private Limited</t>
+  </si>
+  <si>
+    <t>ekameva.com</t>
+  </si>
+  <si>
+    <t>Collabera Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>KGE Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Gloplax Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>NxtWave Disruptive Technologies Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Sesame Group India Private Limited</t>
+  </si>
+  <si>
+    <t>Diebold Nixdorf India Private Limited</t>
+  </si>
+  <si>
+    <t>Nextwealth Entrepreneurs Private Limited</t>
+  </si>
+  <si>
+    <t>Alfahive Private Limited</t>
+  </si>
+  <si>
+    <t>Mastec Quadgen Wireless LLP</t>
+  </si>
+  <si>
+    <t>Orell Software Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>Cochin</t>
+  </si>
+  <si>
+    <t>https://www.version1.com</t>
+  </si>
+  <si>
+    <t>http://www.vipointsolutions.net</t>
+  </si>
+  <si>
+    <t>http://www.millow.io</t>
+  </si>
+  <si>
+    <t>NxtWave Disruptive Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>https://ccbp.in</t>
+  </si>
+  <si>
+    <t>https://www.gloplax.com</t>
+  </si>
+  <si>
+    <t>https://www.kgetechnologies.com</t>
+  </si>
+  <si>
+    <t>http://www.collabera.co.in</t>
+  </si>
+  <si>
+    <t>Techigai Private Limited</t>
+  </si>
+  <si>
+    <t>https://techigai.io/</t>
+  </si>
+  <si>
+    <t>Montran Corporation (India) Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.montran.in/</t>
+  </si>
+  <si>
+    <t>Annova Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>https://annovasolutions.com</t>
+  </si>
+  <si>
+    <t>Fervid Smart Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.fervidsmart.com/</t>
+  </si>
+  <si>
+    <t>PayU Payments Private Limited</t>
+  </si>
+  <si>
+    <t>https://payu.in/</t>
+  </si>
+  <si>
+    <t>Mitel Cloud Communications Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.mitel.com</t>
+  </si>
+  <si>
+    <t>W.G. Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>https://www.webgentechnologies.com/</t>
+  </si>
+  <si>
+    <t>Verinite Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>http://www.verinite.com</t>
+  </si>
+  <si>
+    <t>AAP Global Capability Center LLP</t>
+  </si>
+  <si>
+    <t>Advance Auto Parts</t>
+  </si>
+  <si>
+    <t>Tart Labs</t>
+  </si>
+  <si>
+    <t>Difinative Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Difinative Technologies</t>
+  </si>
+  <si>
+    <t>Epsum Labs Private Limited</t>
+  </si>
+  <si>
+    <t>Epsum Labs</t>
+  </si>
+  <si>
+    <t>Verinite Technologies</t>
+  </si>
+  <si>
+    <t>PayU</t>
+  </si>
+  <si>
+    <t>Mitel</t>
+  </si>
+  <si>
+    <t>W.G. Technologies</t>
+  </si>
+  <si>
+    <t>Oditek Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>Oditek Solutions</t>
+  </si>
+  <si>
+    <t>Matellio India Private Limited</t>
+  </si>
+  <si>
+    <t>Matellio</t>
+  </si>
+  <si>
+    <t>Cloudgarner Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>Ranchi</t>
+  </si>
+  <si>
+    <t>Cloudgarner Solutions</t>
+  </si>
+  <si>
+    <t>Rimini Street India Operations Private Limited</t>
+  </si>
+  <si>
+    <t>Rimini Street</t>
+  </si>
+  <si>
+    <t>Mapmygenome India Limited</t>
+  </si>
+  <si>
+    <t>Mapmygenome</t>
+  </si>
+  <si>
+    <t>TLC Digitech Private Limited</t>
+  </si>
+  <si>
+    <t>TLC Digitech</t>
+  </si>
+  <si>
+    <t>Maaway Technology Private Limited</t>
+  </si>
+  <si>
+    <t>Maaway Technology</t>
   </si>
 </sst>
 </file>
@@ -6393,10 +7881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1137"/>
+  <dimension ref="A1:C1485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1136" workbookViewId="0">
-      <selection activeCell="F1136" sqref="F1136"/>
+    <sheetView tabSelected="1" topLeftCell="A1484" workbookViewId="0">
+      <selection activeCell="C1483" sqref="C1483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18862,6 +20350,3801 @@
       </c>
       <c r="C1137" s="3" t="s">
         <v>1836</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1138" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1138" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1138" s="3" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1139" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1139" s="3" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1140" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1140" s="3" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1141" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1141" s="3" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1142" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1142" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1142" s="3" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1143" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1143" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1143" s="3" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1144" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1144" s="3" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1145" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1145" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1145" s="3" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1146" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1146" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1146" s="3" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1147" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1147" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1147" s="3" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1148" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1148" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1148" s="3" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1149" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1149" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1149" s="3" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1150" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1150" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1150" s="3" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1151" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1151" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1151" s="3" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1152" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1152" s="3" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1153" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1153" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1153" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1154" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1154" s="3" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1155" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1155" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1155" s="3" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1156" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1156" s="3" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1157" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1157" s="3" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1158" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1158" s="3" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1159" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1159" s="3" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1160" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1160" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1160" s="3" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1161" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1161" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1161" s="3" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1162" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1162" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1162" s="3" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1163" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1163" s="3" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1164" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1164" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1164" s="3" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1165" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1165" s="3" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1166" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1166" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1166" s="3" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1167" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1167" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1167" s="3" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1169" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1169" s="3" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1170" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1170" s="3" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1171" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1171" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1171" s="3" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1172" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1172" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1172" s="3" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1173" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1173" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1173" s="3" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1174" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1174" s="3" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1175" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1175" s="3" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1176" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1176" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C1176" s="3" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1177" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1177" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1177" s="3" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1178" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1178" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1178" s="3" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1179" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1179" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1179" s="3" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1180" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1180" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1180" s="3" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1181" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1181" s="3" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1182" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1182" s="3" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1183" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1183" s="3" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1185" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1185" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1185" s="3" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1186" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1186" s="3" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1187" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1187" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1187" s="3" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1188" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1188" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1188" s="3" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1189" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1189" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1189" s="3" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1190" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1190" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1190" s="3" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1191" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1191" s="3" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1192" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1192" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1192" s="3" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1193" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1193" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1193" s="3" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1194" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1194" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1194" s="3" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1195" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1195" s="3" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1196" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1196" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1196" s="3" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1197" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1197" s="3" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1198" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1198" s="3" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1199" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1199" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1199" s="3" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1200" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1200" s="3" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1201" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1201" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1201" s="3" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1202" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1202" s="3" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1203" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1203" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1203" s="3" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1204" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1204" s="3" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1205" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1205" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1205" s="3" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1206" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1206" s="3" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1207" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1207" s="3" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1208" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1208" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1208" s="3" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1209" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1209" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1209" s="3" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1210" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1210" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1210" s="3" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1211" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1211" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1211" s="3" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1212" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1212" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1212" s="3" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1213" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1213" s="3" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1214" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1214" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1214" s="3" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1215" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1215" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1215" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1216" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1216" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1216" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1217" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1217" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1218" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1218" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1218" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1219" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1219" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1219" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1220" s="2" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1220" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1220" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1221" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1221" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1221" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1222" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1222" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1223" s="2" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1223" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1223" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1224" s="2" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1224" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1224" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1225" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1225" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1225" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1226" s="2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1226" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1227" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1227" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1227" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1228" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1228" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1228" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1229" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1229" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1230" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1230" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1230" s="3" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1231" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1231" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1231" s="3" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1232" s="2" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1232" s="3" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1233" s="2" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1233" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1233" s="3" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1234" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1234" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1234" s="3" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1235" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1235" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1235" s="3" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1236" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1236" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1236" s="3" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1237" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1237" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1237" s="3" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1238" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1238" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1238" s="3" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1239" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1239" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1239" s="3" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1240" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1240" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1240" s="3" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1241" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1241" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1241" s="3" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1242" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1242" s="3" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1243" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1243" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1243" s="3" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1244" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1244" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1244" s="3" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1245" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1245" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1245" s="3" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1246" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1246" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1246" s="3" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1247" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1247" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1247" s="3" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1248" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1248" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1248" s="3" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1249" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1249" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1249" s="3" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1250" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1250" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1250" s="3" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1251" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1251" s="3" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1252" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1252" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1252" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1253" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1253" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1253" s="3" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1254" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1254" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1254" s="3" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1255" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1255" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1255" s="3" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1256" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1256" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1256" s="3" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1257" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1257" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1257" s="3" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1258" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1258" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1258" s="3" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1259" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1259" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1259" s="3" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1260" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1260" s="3" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1261" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1261" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1261" s="3" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1262" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1262" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1262" s="3" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1263" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1263" s="3" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1264" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1264" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1264" s="3" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1265" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1265" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1265" s="3" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1266" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1266" s="3" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1267" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1267" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1267" s="3" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1268" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1268" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1268" s="3" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1269" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1269" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1269" s="3" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1270" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1270" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1270" s="3" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1271" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1271" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1271" s="3" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1272" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1272" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1272" s="3" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1273" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1273" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1273" s="3" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1274" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1274" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1274" s="3" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1275" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1275" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1275" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1276" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1276" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1276" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1277" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1277" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1277" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1278" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1278" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1278" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1279" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1279" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1279" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1280" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1280" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1280" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1281" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1281" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1281" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1282" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1282" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1282" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1283" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1283" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1283" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1284" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1284" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1284" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1285" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1285" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1285" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1286" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1286" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1286" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1287" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1287" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1287" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1288" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1288" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1288" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1289" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1289" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1289" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1290" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1290" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1290" s="3" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1291" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1291" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1291" s="3" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1292" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1292" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1292" s="3" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1293" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1293" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1293" s="3" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1294" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1294" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1294" s="3" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1295" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1295" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1295" s="3" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1296" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1296" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1296" s="3" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1297" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1297" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1297" s="3" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1298" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1298" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1298" s="3" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1299" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1299" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1299" s="3" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1300" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1300" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1300" s="3" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1301" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1301" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1301" s="3" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1302" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1302" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1302" s="3" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1303" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1303" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1303" s="3" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1304" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1304" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1304" s="3" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1305" s="2" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1305" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1305" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1306" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1306" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1306" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1307" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1307" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1307" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1308" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1308" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1308" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1309" s="2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1309" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1309" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1310" s="2" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1310" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1310" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1311" s="2" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1311" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1311" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1312" s="2" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B1312" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1312" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1313" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1313" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1313" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1314" s="2" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1314" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1314" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1315" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1315" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1315" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1316" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1316" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1316" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1317" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1317" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1317" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1318" s="2" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1318" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1318" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1319" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1319" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1319" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1320" s="2" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1320" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1320" s="3" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1321" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1321" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1321" s="3" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1322" s="2" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1322" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1322" s="3" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1323" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1323" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1323" s="3" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1324" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1324" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1324" s="3" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1325" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1325" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1325" s="3" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1326" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1326" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1326" s="3" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1327" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1327" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1327" s="3" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1328" s="2" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1328" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1328" s="3" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1329" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1329" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1329" s="3" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1330" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1330" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1330" s="3" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1331" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1331" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1331" s="3" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1332" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1332" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1332" s="3" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1333" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1333" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1333" s="3" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1334" s="2" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1334" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1334" s="3" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1335" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1335" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1335" s="3" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1336" s="2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1336" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1336" s="3" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1337" s="2" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B1337" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1337" s="3" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1338" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B1338" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1338" s="3" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1339" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B1339" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1339" s="3" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1340" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1340" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1340" s="3" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1341" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1341" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1341" s="3" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1342" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1342" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1342" s="3" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1343" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1343" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1343" s="3" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1344" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1344" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1344" s="3" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1345" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B1345" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1345" s="3" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1346" s="2" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B1346" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1346" s="3" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1347" s="2" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1347" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1347" s="3" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1348" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B1348" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1348" s="3" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1349" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B1349" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1349" s="3" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1350" s="2" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1350" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1350" s="3" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1351" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1351" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1351" s="3" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1352" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1352" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1352" s="3" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1353" s="2" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1353" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1353" s="3" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1354" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1354" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1354" s="3" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1355" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1355" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1355" s="3" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1356" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1356" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1356" s="3" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1357" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1357" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1357" s="3" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1358" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B1358" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1358" s="3" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1359" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1359" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1359" s="3" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1360" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B1360" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1360" s="3" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1361" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1361" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1361" s="3" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1362" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1362" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1362" s="3" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1363" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B1363" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1363" s="3" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1364" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B1364" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1364" s="3" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1365" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B1365" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1365" s="3" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1366" s="2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B1366" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1366" s="3" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1367" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1367" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1367" s="3" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1368" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1368" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1368" s="3" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1369" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1369" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1369" s="3" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1370" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1370" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1370" s="3" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1371" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B1371" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1371" s="3" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1372" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1372" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1372" s="3" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1373" s="2" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1373" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1373" s="3" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1374" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1374" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1374" s="3" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1375" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1375" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1375" s="3" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1376" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1376" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1376" s="3" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1377" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1377" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1377" s="3" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1378" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B1378" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1378" s="3" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1379" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1379" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1379" s="3" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1380" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B1380" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1380" s="3" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1381" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B1381" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1381" s="3" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1382" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B1382" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1382" s="3" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1383" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1383" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1383" s="3" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1384" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1384" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1384" s="3" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1385" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1385" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1385" s="3" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1386" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1386" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1386" s="3" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1387" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1387" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1387" s="3" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1388" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B1388" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1388" s="3" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1389" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1389" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1389" s="3" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1390" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B1390" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1390" s="3" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1391" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B1391" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C1391" s="3" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1392" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1392" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1392" s="3" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1393" s="2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1393" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1393" s="3" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1394" s="2" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1394" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1394" s="3" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1395" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1395" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1395" s="3" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1396" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1396" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1396" s="3" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1397" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B1397" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1397" s="3" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1398" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B1398" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1398" s="3" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1399" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B1399" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1399" s="3" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1400" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B1400" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1400" s="3" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1401" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1401" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1401" s="3" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1402" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1402" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1402" s="3" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1403" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1403" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1403" s="3" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1404" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1404" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1404" s="3" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1405" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B1405" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1405" s="3" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1406" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1406" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C1406" s="3" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1407" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1407" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1407" s="3" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1408" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1408" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1408" s="3" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1409" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B1409" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1409" s="3" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1410" s="2" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B1410" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1410" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1411" s="2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B1411" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1411" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1412" s="2" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B1412" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1412" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1413" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1413" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C1413" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1414" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1414" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1414" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1415" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1415" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1415" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1416" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B1416" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1416" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1417" s="2" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B1417" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1417" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1418" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B1418" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1418" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1419" s="2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B1419" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1419" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1420" s="2" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B1420" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1420" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1421" s="2" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B1421" s="2" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C1421" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1422" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B1422" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1422" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1423" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B1423" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1423" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1424" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B1424" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1424" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1425" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B1425" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1425" s="3" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1426" s="2" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B1426" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1426" s="3" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1427" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1427" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1427" s="3" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1428" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1428" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1428" s="3" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1429" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1429" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1429" s="3" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1430" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1430" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1430" s="3" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1431" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1431" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1431" s="3" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1432" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B1432" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1432" s="3" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1433" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1433" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1433" s="3" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1434" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1434" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1434" s="3" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1435" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B1435" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1435" s="3" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1436" s="2" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B1436" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1436" s="3" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1437" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B1437" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1437" s="3" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1438" s="2" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1438" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1438" s="3" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1439" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B1439" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1439" s="3" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1440" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B1440" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1440" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1441" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B1441" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1441" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1442" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B1442" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1442" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1443" s="2" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B1443" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1443" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1444" s="2" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B1444" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1444" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1445" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B1445" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1445" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1446" s="2" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1446" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1446" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1447" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B1447" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1447" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1448" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B1448" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1448" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1449" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B1449" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1449" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1450" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B1450" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1450" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1451" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B1451" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1451" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1452" s="2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1452" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1452" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1453" s="2" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B1453" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1453" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1454" s="2" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B1454" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C1454" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1456" s="2" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1456" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1456" s="3" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1457" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B1457" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1457" s="3" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1458" s="2" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B1458" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1458" s="3" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1459" s="2" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1459" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1459" s="3" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1460" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B1460" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1460" s="3" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1461" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B1461" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1461" s="3" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1462" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B1462" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1462" s="3" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1463" s="2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B1463" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1463" s="3" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1464" s="2" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B1464" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1464" s="3" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1465" s="2" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B1465" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1465" s="3" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1466" s="2" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B1466" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1466" s="3" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1467" s="2" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B1467" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1467" s="3" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1468" s="2" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B1468" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1468" s="3" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1469" s="2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B1469" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1469" s="3" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1470" s="2" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B1470" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1470" s="3" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1471" s="2" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B1471" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1471" s="3" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1472" s="2" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B1472" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1472" s="3" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1473" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B1473" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1473" s="3" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1474" s="2" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B1474" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1474" s="3" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1475" s="2" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B1475" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1475" s="3" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1476" s="2" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B1476" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1476" s="3" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1477" s="2" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B1477" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1477" s="3" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1478" s="2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B1478" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1478" s="3" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1479" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B1479" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1479" s="3" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1480" s="2" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B1480" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1480" s="3" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1481" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1481" s="2" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1481" s="3" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1482" s="2" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1482" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1482" s="3" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1483" s="2" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1483" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1483" s="2" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1484" s="2" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B1484" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1484" s="3" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1485" s="2" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1485" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1485" s="3" t="s">
+        <v>2332</v>
       </c>
     </row>
   </sheetData>
@@ -20003,6 +25286,350 @@
     <hyperlink ref="C1135" r:id="rId1130" display="http://www.valoremreply.com/"/>
     <hyperlink ref="C1136" r:id="rId1131" display="https://ceymox.com/"/>
     <hyperlink ref="C1137" r:id="rId1132" display="https://www.datatemplate.com/"/>
+    <hyperlink ref="C1138" r:id="rId1133" display="http://quantafic.com/"/>
+    <hyperlink ref="C1139" r:id="rId1134" display="https://www.refinitiv.com/"/>
+    <hyperlink ref="C1140" r:id="rId1135" display="https://www.vlinder.io/"/>
+    <hyperlink ref="C1141" r:id="rId1136" display="https://www.macquarie.com/in/corporate"/>
+    <hyperlink ref="C1142" r:id="rId1137" display="http://www.glonur.com/home"/>
+    <hyperlink ref="C1143" r:id="rId1138" display="http://www.aqmtechnologies.com/"/>
+    <hyperlink ref="C1144" r:id="rId1139" display="https://www.technoinfonet.com/"/>
+    <hyperlink ref="C1145" r:id="rId1140" display="http://www.emorphis.com/"/>
+    <hyperlink ref="C1146" r:id="rId1141" display="https://www.qlikchain.com/"/>
+    <hyperlink ref="C1147" r:id="rId1142" display="https://www.bk.mufg.jp/global/"/>
+    <hyperlink ref="C1148" r:id="rId1143" display="http://www.virsoftech.com/"/>
+    <hyperlink ref="C1149" r:id="rId1144" display="http://www.thyssenkruppindia.com/"/>
+    <hyperlink ref="C1150" r:id="rId1145" display="http://www.fluidrobotics.com/"/>
+    <hyperlink ref="C1151" r:id="rId1146" display="http://www.outrightsolutions.net/"/>
+    <hyperlink ref="C1152" r:id="rId1147" display="https://www.prudentconsulting.com/"/>
+    <hyperlink ref="C1153" r:id="rId1148" display="http://www.qlbmarketinginsights.com/"/>
+    <hyperlink ref="C1154" r:id="rId1149" display="http://www.softvan.in/"/>
+    <hyperlink ref="C1155" r:id="rId1150" display="https://www.skynats.com/"/>
+    <hyperlink ref="C1156" r:id="rId1151" display="http://www.caprusit.com/"/>
+    <hyperlink ref="C1157" r:id="rId1152" display="http://www.niit.com/"/>
+    <hyperlink ref="C1158" r:id="rId1153" display="https://www.wdc.com/"/>
+    <hyperlink ref="C1159" r:id="rId1154" display="http://www.innovapptive.com/"/>
+    <hyperlink ref="C1160" r:id="rId1155" display="http://www.myanalysers.com/"/>
+    <hyperlink ref="C1161" r:id="rId1156" display="http://www.botminds.ai/"/>
+    <hyperlink ref="C1162" r:id="rId1157" display="http://www.beyondkey.com/"/>
+    <hyperlink ref="C1163" r:id="rId1158" display="https://www.esri.in/"/>
+    <hyperlink ref="C1164" r:id="rId1159" display="https://ileafsolutions.com/"/>
+    <hyperlink ref="C1165" r:id="rId1160" display="http://www.surensinffotek.com/"/>
+    <hyperlink ref="C1166" r:id="rId1161" display="http://www.iauro.com/"/>
+    <hyperlink ref="C1167" r:id="rId1162" display="http://www.siddhanintelligence.com/"/>
+    <hyperlink ref="C1169" r:id="rId1163" display="https://ileafsolutions.com/"/>
+    <hyperlink ref="C1170" r:id="rId1164" display="https://www.esri.in/"/>
+    <hyperlink ref="C1171" r:id="rId1165" display="http://www.beyondkey.com/"/>
+    <hyperlink ref="C1172" r:id="rId1166" display="http://www.botminds.ai/"/>
+    <hyperlink ref="C1173" r:id="rId1167" display="http://www.myanalysers.com/"/>
+    <hyperlink ref="C1174" r:id="rId1168" display="http://www.innovapptive.com/"/>
+    <hyperlink ref="C1175" r:id="rId1169" display="http://www.smc2.com/"/>
+    <hyperlink ref="C1176" r:id="rId1170" display="http://www.1to9solutions.com/"/>
+    <hyperlink ref="C1177" r:id="rId1171" display="http://pspl.ind.in/"/>
+    <hyperlink ref="C1178" r:id="rId1172" display="https://www.checkmarx.com/"/>
+    <hyperlink ref="C1179" r:id="rId1173" display="http://www.itariumtech.com/"/>
+    <hyperlink ref="C1180" r:id="rId1174" display="http://www.improsys.in/"/>
+    <hyperlink ref="C1181" r:id="rId1175" display="https://corp.rakuten.co.in/"/>
+    <hyperlink ref="C1182" r:id="rId1176" display="https://voltusone.com/"/>
+    <hyperlink ref="C1183" r:id="rId1177" display="http://www.shivainfotech.com/"/>
+    <hyperlink ref="C1185" r:id="rId1178" display="http://www.smartek21.com/"/>
+    <hyperlink ref="C1186" r:id="rId1179" display="https://www.fci-ccm.com/"/>
+    <hyperlink ref="C1187" r:id="rId1180" display="https://sankeysolutions.com/"/>
+    <hyperlink ref="C1188" r:id="rId1181" display="http://www.siddhanintelligence.com/"/>
+    <hyperlink ref="C1189" r:id="rId1182" display="http://www.iauro.com/"/>
+    <hyperlink ref="C1190" r:id="rId1183" display="http://www.amtexsystems.com/"/>
+    <hyperlink ref="C1191" r:id="rId1184" display="https://panaceainfosec.com/"/>
+    <hyperlink ref="C1192" r:id="rId1185" display="https://saintellectsolutions.com/"/>
+    <hyperlink ref="C1193" r:id="rId1186" display="http://www.swaransoft.com/"/>
+    <hyperlink ref="C1194" r:id="rId1187" display="https://www.virtualclone.in/"/>
+    <hyperlink ref="C1195" r:id="rId1188" display="https://www.groundtruth.com/"/>
+    <hyperlink ref="C1196" r:id="rId1189" display="http://oasystspl.com/"/>
+    <hyperlink ref="C1197" r:id="rId1190" display="http://www.graphenesvc.com/"/>
+    <hyperlink ref="C1198" r:id="rId1191" display="http://www.neridio.com/"/>
+    <hyperlink ref="C1199" r:id="rId1192" location="contact-us" display="https://www.scan-it.com.sg/ - contact-us"/>
+    <hyperlink ref="C1200" r:id="rId1193" display="http://www.graphenesvc.com/"/>
+    <hyperlink ref="C1201" r:id="rId1194" display="http://oasystspl.com/"/>
+    <hyperlink ref="C1202" r:id="rId1195" display="https://www.groundtruth.com/"/>
+    <hyperlink ref="C1203" r:id="rId1196" display="https://www.virtualclone.in/"/>
+    <hyperlink ref="C1204" r:id="rId1197" display="http://www.swaransoft.com/"/>
+    <hyperlink ref="C1205" r:id="rId1198" display="https://saintellectsolutions.com/"/>
+    <hyperlink ref="C1206" r:id="rId1199" display="https://www.eclatprime.com/"/>
+    <hyperlink ref="C1207" r:id="rId1200" display="https://www.innologic.in/"/>
+    <hyperlink ref="C1208" r:id="rId1201" display="https://creationinfoways.com/"/>
+    <hyperlink ref="C1209" r:id="rId1202" display="http://www.azuresys.com/"/>
+    <hyperlink ref="C1210" r:id="rId1203" display="http://www.verts.co.in/"/>
+    <hyperlink ref="C1211" r:id="rId1204" display="https://www.networkredux.com/"/>
+    <hyperlink ref="C1212" r:id="rId1205" display="https://justverified.in/"/>
+    <hyperlink ref="C1213" r:id="rId1206" display="http://www.telstra.com.au/"/>
+    <hyperlink ref="C1214" r:id="rId1207" display="https://www.infovision.com/"/>
+    <hyperlink ref="C1215" r:id="rId1208" display="http://www.indevia.com/"/>
+    <hyperlink ref="C1216" r:id="rId1209" display="https://www.atai.ai/"/>
+    <hyperlink ref="C1217" r:id="rId1210" display="http://www.everest-ims.com/"/>
+    <hyperlink ref="C1218" r:id="rId1211" display="http://www.aegan-global.com/"/>
+    <hyperlink ref="C1219" r:id="rId1212" display="http://www.1osolutions.com/"/>
+    <hyperlink ref="C1220" r:id="rId1213" display="https://ctrine.in/"/>
+    <hyperlink ref="C1221" r:id="rId1214" display="http://www.progience.com/"/>
+    <hyperlink ref="C1222" r:id="rId1215" display="https://atgeirsolutions.com/"/>
+    <hyperlink ref="C1223" r:id="rId1216" display="https://lonartech.com/"/>
+    <hyperlink ref="C1224" r:id="rId1217" display="https://flaplive.com/"/>
+    <hyperlink ref="C1225" r:id="rId1218" display="http://www.ncompass.in/"/>
+    <hyperlink ref="C1226" r:id="rId1219" display="https://www.kyndryl.com/"/>
+    <hyperlink ref="C1227" r:id="rId1220" display="https://www.infowindtech.com/"/>
+    <hyperlink ref="C1228" r:id="rId1221" display="http://logitech.com/"/>
+    <hyperlink ref="C1229" r:id="rId1222" display="http://www.sanchisolutions.com/"/>
+    <hyperlink ref="C1230" r:id="rId1223" display="https://www.zelarsoft.com/"/>
+    <hyperlink ref="C1231" r:id="rId1224" display="https://www.concertosoft.com/"/>
+    <hyperlink ref="C1232" r:id="rId1225" display="https://www.bertlabs.com/"/>
+    <hyperlink ref="C1233" r:id="rId1226" display="http://www.eappitservices.com/"/>
+    <hyperlink ref="C1234" r:id="rId1227" display="https://www.advantageclub.co/"/>
+    <hyperlink ref="C1235" r:id="rId1228" display="http://www.sanchisolutions.com/"/>
+    <hyperlink ref="C1236" r:id="rId1229" display="https://collective-s.com/"/>
+    <hyperlink ref="C1237" r:id="rId1230" display="https://nlbservices.com/"/>
+    <hyperlink ref="C1238" r:id="rId1231" display="https://www.techsheel.com/"/>
+    <hyperlink ref="C1239" r:id="rId1232" display="http://www.sidanglobal.com/"/>
+    <hyperlink ref="C1240" r:id="rId1233" display="https://www.delphix.com/"/>
+    <hyperlink ref="C1241" r:id="rId1234" display="http://www.thegoldensource.com/"/>
+    <hyperlink ref="C1242" r:id="rId1235" display="https://eshipz.com/"/>
+    <hyperlink ref="C1243" r:id="rId1236" display="https://www.skinternational.com/"/>
+    <hyperlink ref="C1244" r:id="rId1237" display="http://www.huronconsultinggroup.com/"/>
+    <hyperlink ref="C1245" r:id="rId1238"/>
+    <hyperlink ref="C1246" r:id="rId1239" display="http://www.sidanglobal.com/"/>
+    <hyperlink ref="C1247" r:id="rId1240"/>
+    <hyperlink ref="C1248" r:id="rId1241"/>
+    <hyperlink ref="C1249" r:id="rId1242" display="http://www.huronconsultinggroup.com/"/>
+    <hyperlink ref="C1250" r:id="rId1243" display="http://www.thegoldensource.com/"/>
+    <hyperlink ref="C1251" r:id="rId1244"/>
+    <hyperlink ref="C1252" r:id="rId1245"/>
+    <hyperlink ref="C1253" r:id="rId1246"/>
+    <hyperlink ref="C1254" r:id="rId1247"/>
+    <hyperlink ref="C1255" r:id="rId1248"/>
+    <hyperlink ref="C1256" r:id="rId1249" display="http://www.7-eleven.com/"/>
+    <hyperlink ref="C1257" r:id="rId1250" display="http://www.cdata.com/"/>
+    <hyperlink ref="C1258" r:id="rId1251"/>
+    <hyperlink ref="C1259" r:id="rId1252"/>
+    <hyperlink ref="C1260" r:id="rId1253"/>
+    <hyperlink ref="C1261" r:id="rId1254"/>
+    <hyperlink ref="C1262" r:id="rId1255" display="http://www.ginesys.in/"/>
+    <hyperlink ref="C1263" r:id="rId1256"/>
+    <hyperlink ref="C1264" r:id="rId1257" display="http://www.edvenswa.com/"/>
+    <hyperlink ref="C1265" r:id="rId1258"/>
+    <hyperlink ref="C1266" r:id="rId1259" display="https://www.softqubes.com/"/>
+    <hyperlink ref="C1267" r:id="rId1260"/>
+    <hyperlink ref="C1268" r:id="rId1261"/>
+    <hyperlink ref="C1269" r:id="rId1262"/>
+    <hyperlink ref="C1270" r:id="rId1263" display="http://www.aufittechnologies.com/"/>
+    <hyperlink ref="C1271" r:id="rId1264" display="https://www.beeceeyes.com/"/>
+    <hyperlink ref="C1272" r:id="rId1265"/>
+    <hyperlink ref="C1273" r:id="rId1266"/>
+    <hyperlink ref="C1274" r:id="rId1267"/>
+    <hyperlink ref="C1275" r:id="rId1268" display="https://www.vkcontrol.com/"/>
+    <hyperlink ref="C1276" r:id="rId1269" display="https://www.mindbowser.com/"/>
+    <hyperlink ref="C1277" r:id="rId1270" display="https://www.rawdatatech.com/"/>
+    <hyperlink ref="C1278" r:id="rId1271" display="http://www.aufittechnologies.com/"/>
+    <hyperlink ref="C1279" r:id="rId1272" display="http://www.gssodisha.com/"/>
+    <hyperlink ref="C1280" r:id="rId1273" display="https://www.srmtech.com/"/>
+    <hyperlink ref="C1281" r:id="rId1274" display="https://www.beeceeyes.com/"/>
+    <hyperlink ref="C1282" r:id="rId1275" display="https://www.verandalearning.com/"/>
+    <hyperlink ref="C1283" r:id="rId1276" display="http://www.mandsconsulting.com/"/>
+    <hyperlink ref="C1284" r:id="rId1277" display="http://www.logixal.com/"/>
+    <hyperlink ref="C1285" r:id="rId1278" display="https://areteanstech.com/"/>
+    <hyperlink ref="C1286" r:id="rId1279" display="https://www.delve.ai/"/>
+    <hyperlink ref="C1287" r:id="rId1280" display="https://www.mrcconsultancy.net/"/>
+    <hyperlink ref="C1288" r:id="rId1281" display="http://www.aizenalgo.com/"/>
+    <hyperlink ref="C1289" r:id="rId1282" display="https://www.trunexa.com/"/>
+    <hyperlink ref="C1290" r:id="rId1283"/>
+    <hyperlink ref="C1291" r:id="rId1284" display="http://www.lululemon.com/"/>
+    <hyperlink ref="C1292" r:id="rId1285"/>
+    <hyperlink ref="C1293" r:id="rId1286" display="http://www.process9.com/"/>
+    <hyperlink ref="C1294" r:id="rId1287"/>
+    <hyperlink ref="C1295" r:id="rId1288"/>
+    <hyperlink ref="C1296" r:id="rId1289" display="https://www.riotinto.com/"/>
+    <hyperlink ref="C1297" r:id="rId1290"/>
+    <hyperlink ref="C1298" r:id="rId1291"/>
+    <hyperlink ref="C1299" r:id="rId1292" display="https://blucocoondigital.com/"/>
+    <hyperlink ref="C1300" r:id="rId1293" display="http://abstract-tech.com/"/>
+    <hyperlink ref="C1301" r:id="rId1294" display="http://www.qt.io/"/>
+    <hyperlink ref="C1302" r:id="rId1295" display="http://www.productdossier.com/"/>
+    <hyperlink ref="C1303" r:id="rId1296"/>
+    <hyperlink ref="C1304" r:id="rId1297"/>
+    <hyperlink ref="C1305" r:id="rId1298" display="https://www.techsheel.com/"/>
+    <hyperlink ref="C1306" r:id="rId1299" display="https://www.skinternational.com/"/>
+    <hyperlink ref="C1307" r:id="rId1300" display="https://www.tekditechnologies.com/"/>
+    <hyperlink ref="C1308" r:id="rId1301" display="https://photosyntesis.com/"/>
+    <hyperlink ref="C1309" r:id="rId1302" display="https://se.com/"/>
+    <hyperlink ref="C1310" r:id="rId1303" display="https://www.ovatix.co.in/"/>
+    <hyperlink ref="C1311" r:id="rId1304" display="https://www.indiapolaris.com/"/>
+    <hyperlink ref="C1312" r:id="rId1305" display="https://www.exaltaretech.com/"/>
+    <hyperlink ref="C1313" r:id="rId1306" display="https://www.addendanalytics.com/"/>
+    <hyperlink ref="C1314" r:id="rId1307" display="https://www.servicenow.com/"/>
+    <hyperlink ref="C1315" r:id="rId1308" display="http://www.striatumtech.com/"/>
+    <hyperlink ref="C1316" r:id="rId1309" display="http://www.ellow.io/"/>
+    <hyperlink ref="C1317" r:id="rId1310" display="http://www.experian.com/"/>
+    <hyperlink ref="C1318" r:id="rId1311" display="https://www.amtronics.in/"/>
+    <hyperlink ref="C1319" r:id="rId1312" display="https://www.cctech.co.in/"/>
+    <hyperlink ref="C1320" r:id="rId1313" display="https://worldline.com/"/>
+    <hyperlink ref="C1321" r:id="rId1314" display="https://www.cctech.co.in/"/>
+    <hyperlink ref="C1322" r:id="rId1315" display="https://www.servicenow.com/"/>
+    <hyperlink ref="C1323" r:id="rId1316" display="http://www.striatumtech.com/"/>
+    <hyperlink ref="C1324" r:id="rId1317" display="http://www.ellow.io/"/>
+    <hyperlink ref="C1325" r:id="rId1318" display="https://www.addendanalytics.com/"/>
+    <hyperlink ref="C1326" r:id="rId1319" display="https://www.aspirantlabs.com/"/>
+    <hyperlink ref="C1327" r:id="rId1320" display="http://www.experian.com/"/>
+    <hyperlink ref="C1328" r:id="rId1321" display="https://www.amtronics.in/"/>
+    <hyperlink ref="C1329" r:id="rId1322" display="http://www.dataabsolute.com/"/>
+    <hyperlink ref="C1330" r:id="rId1323" display="https://www.finacctsolutions.com/"/>
+    <hyperlink ref="C1331" r:id="rId1324" display="https://www.kautech.in/"/>
+    <hyperlink ref="C1332" r:id="rId1325" display="https://qualizeal.com/"/>
+    <hyperlink ref="C1333" r:id="rId1326" display="http://www.gabrielny.com/"/>
+    <hyperlink ref="C1334" r:id="rId1327" display="https://www.netiapps.com/"/>
+    <hyperlink ref="C1335" r:id="rId1328" display="https://www.servicenow.com/"/>
+    <hyperlink ref="C1336" r:id="rId1329"/>
+    <hyperlink ref="C1337" r:id="rId1330"/>
+    <hyperlink ref="C1338" r:id="rId1331"/>
+    <hyperlink ref="C1339" r:id="rId1332" display="https://apac.cib.natixis.com/"/>
+    <hyperlink ref="C1340" r:id="rId1333" display="https://www.imaginationtech.com/"/>
+    <hyperlink ref="C1341" r:id="rId1334" display="https://www.finacus.co.in/"/>
+    <hyperlink ref="C1342" r:id="rId1335"/>
+    <hyperlink ref="C1343" r:id="rId1336" display="https://www.nyl.technology/"/>
+    <hyperlink ref="C1344" r:id="rId1337" display="http://www.impaqtive.com/"/>
+    <hyperlink ref="C1345" r:id="rId1338" display="https://www.interaxicservices.com/"/>
+    <hyperlink ref="C1346" r:id="rId1339"/>
+    <hyperlink ref="C1347" r:id="rId1340" display="http://www.amplifai.com/"/>
+    <hyperlink ref="C1348" r:id="rId1341" display="http://www.d10x.io/"/>
+    <hyperlink ref="C1349" r:id="rId1342"/>
+    <hyperlink ref="C1350" r:id="rId1343" location="contact" display="https://beimagine.tech/ - contact"/>
+    <hyperlink ref="C1351" r:id="rId1344" display="https://www.cliniqally.com/"/>
+    <hyperlink ref="C1352" r:id="rId1345" display="https://www.interaxicservices.com/"/>
+    <hyperlink ref="C1353" r:id="rId1346" display="https://www.growisto.com/"/>
+    <hyperlink ref="C1354" r:id="rId1347" display="http://www.amplifai.com/"/>
+    <hyperlink ref="C1355" r:id="rId1348" display="http://www.impaqtive.com/"/>
+    <hyperlink ref="C1356" r:id="rId1349" display="http://illumifin.com/"/>
+    <hyperlink ref="C1357" r:id="rId1350" display="http://www.d10x.io/"/>
+    <hyperlink ref="C1358" r:id="rId1351" display="https://www.e-solutionsinc.com/"/>
+    <hyperlink ref="C1359" r:id="rId1352" display="https://www.fastcurveservices.com/"/>
+    <hyperlink ref="C1360" r:id="rId1353" display="https://www.ispg.co/"/>
+    <hyperlink ref="C1361" r:id="rId1354" display="http://www.aagey.com/contact-us/"/>
+    <hyperlink ref="C1362" r:id="rId1355" display="https://www.porter.in/"/>
+    <hyperlink ref="C1363" r:id="rId1356" display="https://insightsoftware.com/"/>
+    <hyperlink ref="C1364" r:id="rId1357" display="http://www.digitowork.com/"/>
+    <hyperlink ref="C1365" r:id="rId1358" display="https://nimapinfotech.com/"/>
+    <hyperlink ref="C1366" r:id="rId1359" display="https://www.adaps.com/"/>
+    <hyperlink ref="C1367" r:id="rId1360" display="https://www.finacctsolutions.com/"/>
+    <hyperlink ref="C1368" r:id="rId1361" display="https://www.kautech.in/"/>
+    <hyperlink ref="C1369" r:id="rId1362" display="https://qualizeal.com/"/>
+    <hyperlink ref="C1370" r:id="rId1363" display="http://www.dataabsolute.com/"/>
+    <hyperlink ref="C1371" r:id="rId1364" display="https://www.mawai.com/"/>
+    <hyperlink ref="C1372" r:id="rId1365" display="http://www.gabrielny.com/"/>
+    <hyperlink ref="C1373" r:id="rId1366" display="https://www.netiapps.com/"/>
+    <hyperlink ref="C1374" r:id="rId1367" display="https://transmonqa.com/"/>
+    <hyperlink ref="C1375" r:id="rId1368" display="http://www.doodleblue.com/"/>
+    <hyperlink ref="C1376" r:id="rId1369" display="https://www.idp.com/india/"/>
+    <hyperlink ref="C1377" r:id="rId1370" display="https://repute.net/"/>
+    <hyperlink ref="C1378" r:id="rId1371" display="https://adagrad.ai/"/>
+    <hyperlink ref="C1379" r:id="rId1372" display="http://www.gsk.com/"/>
+    <hyperlink ref="C1380" r:id="rId1373" display="http://www.datamorphosis.in/"/>
+    <hyperlink ref="C1381" r:id="rId1374" display="https://www.shiprocket.in/"/>
+    <hyperlink ref="C1382" r:id="rId1375" display="https://www.kloudportal.com/"/>
+    <hyperlink ref="C1383" r:id="rId1376" display="http://www.doodleblue.com/"/>
+    <hyperlink ref="C1384" r:id="rId1377" display="https://www.idp.com/india/"/>
+    <hyperlink ref="C1385" r:id="rId1378" display="https://repute.net/"/>
+    <hyperlink ref="C1386" r:id="rId1379" display="https://transmonqa.com/"/>
+    <hyperlink ref="C1387" r:id="rId1380" display="https://www.cognativinc.com/"/>
+    <hyperlink ref="C1388" r:id="rId1381" display="https://adagrad.ai/"/>
+    <hyperlink ref="C1389" r:id="rId1382" display="http://www.gsk.com/"/>
+    <hyperlink ref="C1390" r:id="rId1383" display="https://www.exelatech.com/"/>
+    <hyperlink ref="C1391" r:id="rId1384" display="https://www.teknorix.com/"/>
+    <hyperlink ref="C1392" r:id="rId1385" display="https://qaagility.com/"/>
+    <hyperlink ref="C1393" r:id="rId1386" display="https://voiptechsolutions.in/"/>
+    <hyperlink ref="C1394" r:id="rId1387" display="http://www.dizitalpods.com/"/>
+    <hyperlink ref="C1395" r:id="rId1388"/>
+    <hyperlink ref="C1396" r:id="rId1389" display="http://www.doodleblue.com/"/>
+    <hyperlink ref="C1397" r:id="rId1390" display="https://www.kloudportal.com/"/>
+    <hyperlink ref="C1398" r:id="rId1391"/>
+    <hyperlink ref="C1399" r:id="rId1392" display="http://www.datamorphosis.in/"/>
+    <hyperlink ref="C1400" r:id="rId1393" display="http://www.lentera.in/"/>
+    <hyperlink ref="C1401" r:id="rId1394" display="https://www.nelito.com/"/>
+    <hyperlink ref="C1402" r:id="rId1395" display="http://www.enovasolutions.com/"/>
+    <hyperlink ref="C1403" r:id="rId1396"/>
+    <hyperlink ref="C1404" r:id="rId1397"/>
+    <hyperlink ref="C1405" r:id="rId1398"/>
+    <hyperlink ref="C1406" r:id="rId1399"/>
+    <hyperlink ref="C1407" r:id="rId1400"/>
+    <hyperlink ref="C1408" r:id="rId1401" display="http://www.kanini.com/"/>
+    <hyperlink ref="C1409" r:id="rId1402" display="http://www.michelin.com/"/>
+    <hyperlink ref="C1410" r:id="rId1403" display="https://www.codeshastra.com/"/>
+    <hyperlink ref="C1411" r:id="rId1404" display="http://www.pice.one/"/>
+    <hyperlink ref="C1412" r:id="rId1405" display="https://www.cogentnext.com/"/>
+    <hyperlink ref="C1413" r:id="rId1406" display="https://www.incrediblevisibility.com/"/>
+    <hyperlink ref="C1414" r:id="rId1407" display="https://www.pitneybowes.com/in"/>
+    <hyperlink ref="C1415" r:id="rId1408" display="http://www.kanini.com/"/>
+    <hyperlink ref="C1416" r:id="rId1409" display="https://fidelsoftech.com/"/>
+    <hyperlink ref="C1417" r:id="rId1410" display="http://www.paccar.com/"/>
+    <hyperlink ref="C1418" r:id="rId1411" display="http://www.michelin.com/"/>
+    <hyperlink ref="C1419" r:id="rId1412" display="https://www.infofeat.com/"/>
+    <hyperlink ref="C1420" r:id="rId1413" display="http://www.stripe.com/"/>
+    <hyperlink ref="C1421" r:id="rId1414" display="https://www.interlooptechnologies.com/about-us/"/>
+    <hyperlink ref="C1422" r:id="rId1415" display="https://www.nsarrows.com/"/>
+    <hyperlink ref="C1423" r:id="rId1416" display="https://aitobi.co/"/>
+    <hyperlink ref="C1424" r:id="rId1417" display="http://www.speradigital.com/"/>
+    <hyperlink ref="C1425" r:id="rId1418" display="https://courseplay.co/"/>
+    <hyperlink ref="C1426" r:id="rId1419" display="https://www.meruaccounting.com/"/>
+    <hyperlink ref="C1427" r:id="rId1420" display="https://www.trunexa.com/"/>
+    <hyperlink ref="C1428" r:id="rId1421" display="http://www.logixal.com/"/>
+    <hyperlink ref="C1429" r:id="rId1422" display="https://areteanstech.com/"/>
+    <hyperlink ref="C1430" r:id="rId1423" display="https://www.delve.ai/"/>
+    <hyperlink ref="C1431" r:id="rId1424" display="http://www.mandsconsulting.com/"/>
+    <hyperlink ref="C1432" r:id="rId1425" display="http://www.randstadoffshore.com/"/>
+    <hyperlink ref="C1433" r:id="rId1426" display="https://www.mrcconsultancy.net/"/>
+    <hyperlink ref="C1434" r:id="rId1427" display="http://www.aizenalgo.com/"/>
+    <hyperlink ref="C1435" r:id="rId1428" display="https://www.wattlecorp.com/"/>
+    <hyperlink ref="C1436" r:id="rId1429" display="http://www.millow.io/"/>
+    <hyperlink ref="C1437" r:id="rId1430" display="http://www.vipointsolutions.net/"/>
+    <hyperlink ref="C1438" r:id="rId1431" display="https://www.version1.com/"/>
+    <hyperlink ref="C1439" r:id="rId1432" display="http://www.ekameva.com/"/>
+    <hyperlink ref="C1440" r:id="rId1433" display="http://www.collabera.co.in/"/>
+    <hyperlink ref="C1441" r:id="rId1434" display="https://www.kgetechnologies.com/"/>
+    <hyperlink ref="C1442" r:id="rId1435" display="https://www.gloplax.com/"/>
+    <hyperlink ref="C1443" r:id="rId1436" display="https://ccbp.in/"/>
+    <hyperlink ref="C1444" r:id="rId1437" display="http://www.millow.io/"/>
+    <hyperlink ref="C1445" r:id="rId1438" display="http://www.vipointsolutions.net/"/>
+    <hyperlink ref="C1446" r:id="rId1439" display="https://www.version1.com/"/>
+    <hyperlink ref="C1447" r:id="rId1440" display="https://www.wattlecorp.com/"/>
+    <hyperlink ref="C1448" r:id="rId1441" display="http://www.sbg.co.uk/"/>
+    <hyperlink ref="C1449" r:id="rId1442" display="http://www.ekameva.com/"/>
+    <hyperlink ref="C1450" r:id="rId1443" display="https://www.dieboldnixdorf.com/en-us"/>
+    <hyperlink ref="C1451" r:id="rId1444" display="https://www.nextwealth.in/"/>
+    <hyperlink ref="C1452" r:id="rId1445" display="https://www.alfahive.com/"/>
+    <hyperlink ref="C1453" r:id="rId1446" display="https://www.mastecnetworksolutions.com/"/>
+    <hyperlink ref="C1454" r:id="rId1447" display="https://orell.com/"/>
+    <hyperlink ref="C1456" r:id="rId1448" display="https://www.version1.com/"/>
+    <hyperlink ref="C1457" r:id="rId1449" display="http://www.vipointsolutions.net/"/>
+    <hyperlink ref="C1458" r:id="rId1450" display="http://www.millow.io/"/>
+    <hyperlink ref="C1459" r:id="rId1451" display="https://ccbp.in/"/>
+    <hyperlink ref="C1460" r:id="rId1452" display="https://www.gloplax.com/"/>
+    <hyperlink ref="C1461" r:id="rId1453" display="https://www.kgetechnologies.com/"/>
+    <hyperlink ref="C1462" r:id="rId1454" display="http://www.collabera.co.in/"/>
+    <hyperlink ref="C1463" r:id="rId1455"/>
+    <hyperlink ref="C1464" r:id="rId1456"/>
+    <hyperlink ref="C1465" r:id="rId1457" display="https://annovasolutions.com/"/>
+    <hyperlink ref="C1466" r:id="rId1458"/>
+    <hyperlink ref="C1467" r:id="rId1459"/>
+    <hyperlink ref="C1468" r:id="rId1460" display="https://www.mitel.com/"/>
+    <hyperlink ref="C1469" r:id="rId1461"/>
+    <hyperlink ref="C1470" r:id="rId1462" display="http://www.verinite.com/"/>
+    <hyperlink ref="C1471" r:id="rId1463" display="https://corp.advanceautoparts.com/home/default.aspx"/>
+    <hyperlink ref="C1472" r:id="rId1464" display="https://tartlabs.com/"/>
+    <hyperlink ref="C1473" r:id="rId1465" display="https://www.difinative.com/"/>
+    <hyperlink ref="C1474" r:id="rId1466" display="https://www.epsumlabs.com/"/>
+    <hyperlink ref="C1475" r:id="rId1467" display="http://www.verinite.com/"/>
+    <hyperlink ref="C1476" r:id="rId1468" display="https://payu.in/"/>
+    <hyperlink ref="C1477" r:id="rId1469" display="https://www.mitel.com/"/>
+    <hyperlink ref="C1478" r:id="rId1470" display="https://www.webgentechnologies.com/"/>
+    <hyperlink ref="C1479" r:id="rId1471" display="https://www.oditeksolutions.com/"/>
+    <hyperlink ref="C1480" r:id="rId1472" display="https://www.matellio.com/"/>
+    <hyperlink ref="C1481" r:id="rId1473" display="http://csharptek.com/"/>
+    <hyperlink ref="C1482" r:id="rId1474" display="http://www.riministreet.com/"/>
+    <hyperlink ref="C1484" r:id="rId1475" display="http://www.tlcgroup.com/"/>
+    <hyperlink ref="C1485" r:id="rId1476" display="https://maaway.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
